--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_0_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1566533.399340547</v>
+        <v>1511571.692934203</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310055.3998280913</v>
+        <v>241769.453320349</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11503606.42357043</v>
+        <v>11503606.42357042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7751712.942591429</v>
+        <v>7751712.942591427</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G2" t="n">
         <v>3.516869431124803</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.1776483877525586</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -737,61 +737,61 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="E3" t="n">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="F3" t="n">
+      <c r="T3" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G5" t="n">
         <v>3.516869431124803</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.1776483877525586</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.097658594934726</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="J9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.37924737873222</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>133.343395022438</v>
       </c>
       <c r="G11" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7603440885287</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>56.97341961532581</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>147.9754831086837</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>101.142646959981</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.09324089333332</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.22331673875182</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.74723767418689</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>299.6045656372685</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>243.4817566341707</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7603440885287</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I15" t="n">
-        <v>80.88269664813838</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U15" t="n">
-        <v>144.0094713785049</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>162.1195168047737</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.63995283958009</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.65185754899971</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>155.0775767952812</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>105.4086218857235</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0355428294531</v>
+        <v>208.162748077382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>36.71036076875626</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>120.5930782535466</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.96680931411737</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S18" t="n">
         <v>177.3046992815431</v>
@@ -1985,13 +1985,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>51.64470282305651</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>63.438910844789</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2036940897532</v>
+        <v>214.1047521565885</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>2.837464180659975</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I21" t="n">
-        <v>80.88269664813838</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.96680931411737</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>211.8708247664476</v>
@@ -2219,13 +2219,13 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>183.9082356867886</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>79.61244519333782</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>51.64470282305629</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>159.9846475049171</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>137.8361097545306</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -2335,7 +2335,7 @@
         <v>417.4006896726905</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2402,22 +2402,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118.8437642829848</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>112.7179135991724</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>157.8268357890596</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0914904239654</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.01037003454109</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.65185754899971</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.5842356695385</v>
+        <v>85.24198688515096</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>268.4671692923316</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -2645,16 +2645,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.691580125958723</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>5.10231281681993</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>224.2008427698061</v>
+        <v>51.64470282305634</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>72.55287523770012</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>66.60986075753485</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>21.03618311367707</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -2879,7 +2879,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.77497283350294</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1774694070239</v>
+        <v>236.2084105292887</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>122.3165576320849</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.443010918170939</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>217.7399649909093</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>65.94527802156497</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>11.98866152662058</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>112.1637087152956</v>
       </c>
       <c r="U33" t="n">
         <v>237.1774694070239</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>119.1367973425381</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>79.61244519333782</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4006896726905</v>
+        <v>32.7318827697873</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.595361001974384</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.579253587172601</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8708247664476</v>
+        <v>112.7179135991724</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>224.2008427698061</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.15069457683456</v>
       </c>
       <c r="U37" t="n">
-        <v>72.55287523770012</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>232.0444910740365</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>45.29292960029566</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>77.59758323039109</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8708247664476</v>
+        <v>117.6408361570384</v>
       </c>
       <c r="U39" t="n">
         <v>237.1774694070239</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>6.443010918170734</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>174.5802998415127</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.70689693125375</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3821,19 +3821,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>79.81804639071183</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>125.4831722259013</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>51.64470282305633</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>51.64470282305635</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>57.91581176507587</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>149.4708100569773</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.3046992815431</v>
+        <v>88.36524035709097</v>
       </c>
       <c r="T45" t="n">
         <v>211.8708247664476</v>
       </c>
       <c r="U45" t="n">
-        <v>76.12380110792533</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>8.132332248944905</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213857585613</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>7.244751028117094</v>
       </c>
       <c r="F2" t="n">
-        <v>3.833742919262513</v>
+        <v>4.013185735174188</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="L2" t="n">
         <v>0.2813495544899843</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="C3" t="n">
-        <v>10.51508435972668</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D3" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="E3" t="n">
         <v>3.833742919262513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G3" t="n">
         <v>0.2813495544899843</v>
@@ -4421,40 +4421,40 @@
         <v>10.41959988319577</v>
       </c>
       <c r="N3" t="n">
-        <v>10.41959988319577</v>
+        <v>13.90130062000932</v>
       </c>
       <c r="O3" t="n">
-        <v>10.58577698768566</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P3" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="R3" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06747772449921</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="T3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="U3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="V3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="W3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="X3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.06747772449921</v>
+        <v>3.833742919262513</v>
       </c>
     </row>
     <row r="4">
@@ -4555,22 +4555,22 @@
         <v>7.244751028117094</v>
       </c>
       <c r="F5" t="n">
-        <v>3.833742919262513</v>
+        <v>4.013185735174188</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="L5" t="n">
         <v>0.2813495544899843</v>
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D6" t="n">
         <v>0.2813495544899843</v>
@@ -4655,7 +4655,7 @@
         <v>3.45619840956866</v>
       </c>
       <c r="M6" t="n">
-        <v>6.937899146382215</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N6" t="n">
         <v>7.104076250872104</v>
@@ -4670,28 +4670,28 @@
         <v>14.06747772449921</v>
       </c>
       <c r="R6" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="S6" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="T6" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="U6" t="n">
-        <v>10.93852964880757</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="V6" t="n">
-        <v>10.93852964880757</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W6" t="n">
         <v>7.386136284035041</v>
       </c>
       <c r="X6" t="n">
-        <v>3.833742919262513</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.386136284035041</v>
       </c>
     </row>
     <row r="7">
@@ -4789,7 +4789,7 @@
         <v>7.244751028117094</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4862,25 +4862,25 @@
         <v>14.06747772449921</v>
       </c>
       <c r="C9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="D9" t="n">
-        <v>14.06747772449921</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="E9" t="n">
-        <v>14.06747772449921</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="F9" t="n">
-        <v>10.93852964880757</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="G9" t="n">
-        <v>10.93852964880757</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="H9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4889,16 +4889,16 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
-        <v>13.90130062000932</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="O9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1410.901923140829</v>
+        <v>522.6986283605723</v>
       </c>
       <c r="C11" t="n">
-        <v>1410.901923140829</v>
+        <v>168.9557017129169</v>
       </c>
       <c r="D11" t="n">
-        <v>1410.901923140829</v>
+        <v>168.9557017129169</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.27642073807</v>
+        <v>168.9557017129169</v>
       </c>
       <c r="F11" t="n">
-        <v>979.0044514047228</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3875931494798</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H11" t="n">
-        <v>221.7312569219368</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I11" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J11" t="n">
-        <v>79.03615234277382</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K11" t="n">
-        <v>253.4009645124891</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L11" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M11" t="n">
-        <v>855.4462867779243</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N11" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O11" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P11" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q11" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R11" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S11" t="n">
-        <v>1410.901923140829</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T11" t="n">
-        <v>1410.901923140829</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="U11" t="n">
-        <v>1410.901923140829</v>
+        <v>1263.981410858087</v>
       </c>
       <c r="V11" t="n">
-        <v>1410.901923140829</v>
+        <v>1263.981410858087</v>
       </c>
       <c r="W11" t="n">
-        <v>1410.901923140829</v>
+        <v>1263.981410858087</v>
       </c>
       <c r="X11" t="n">
-        <v>1410.901923140829</v>
+        <v>900.5645277321212</v>
       </c>
       <c r="Y11" t="n">
-        <v>1410.901923140829</v>
+        <v>900.5645277321212</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4213552892377</v>
+        <v>521.5670695632091</v>
       </c>
       <c r="C12" t="n">
-        <v>798.0090810222014</v>
+        <v>464.0181608608598</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2289647832331</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="E12" t="n">
-        <v>463.6657609046475</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="F12" t="n">
         <v>303.2380446218916</v>
@@ -5114,58 +5114,58 @@
         <v>153.7678596636252</v>
       </c>
       <c r="H12" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I12" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J12" t="n">
-        <v>54.25343639154487</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K12" t="n">
-        <v>54.25343639154487</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L12" t="n">
-        <v>336.9135471374825</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M12" t="n">
-        <v>711.5192283793353</v>
+        <v>852.4487932782868</v>
       </c>
       <c r="N12" t="n">
-        <v>1114.459496896546</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.324039458273</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P12" t="n">
-        <v>1656.348915743248</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q12" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R12" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S12" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T12" t="n">
-        <v>1713.270185522716</v>
+        <v>1499.259251415192</v>
       </c>
       <c r="U12" t="n">
-        <v>1713.270185522716</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V12" t="n">
-        <v>1713.270185522716</v>
+        <v>1016.60633189759</v>
       </c>
       <c r="W12" t="n">
-        <v>1611.105895664149</v>
+        <v>747.2077626278814</v>
       </c>
       <c r="X12" t="n">
-        <v>1391.597901280845</v>
+        <v>747.2077626278814</v>
       </c>
       <c r="Y12" t="n">
-        <v>1165.957208216173</v>
+        <v>521.5670695632091</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J13" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K13" t="n">
-        <v>42.07125390872753</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L13" t="n">
         <v>105.1473006107386</v>
       </c>
       <c r="M13" t="n">
-        <v>180.2480375930233</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N13" t="n">
-        <v>261.579183167833</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O13" t="n">
-        <v>314.7040135792701</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P13" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.0536878203075</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R13" t="n">
-        <v>83.85453592594251</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S13" t="n">
-        <v>83.85453592594251</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T13" t="n">
-        <v>83.85453592594251</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="U13" t="n">
-        <v>83.85453592594251</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="V13" t="n">
-        <v>83.85453592594251</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="W13" t="n">
-        <v>83.85453592594251</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="X13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.85453592594251</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>615.8629082553415</v>
+        <v>1119.399471729564</v>
       </c>
       <c r="C14" t="n">
-        <v>615.8629082553415</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="D14" t="n">
-        <v>615.8629082553415</v>
+        <v>816.7685973484843</v>
       </c>
       <c r="E14" t="n">
-        <v>615.8629082553415</v>
+        <v>441.5373730438013</v>
       </c>
       <c r="F14" t="n">
-        <v>615.8629082553415</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G14" t="n">
-        <v>369.9217399379973</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H14" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I14" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J14" t="n">
-        <v>79.03615234277396</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K14" t="n">
-        <v>253.4009645124893</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L14" t="n">
-        <v>524.6989948305063</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M14" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N14" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O14" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P14" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q14" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R14" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S14" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T14" t="n">
-        <v>1192.545056173125</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U14" t="n">
-        <v>939.9839017999395</v>
+        <v>1460.70903114953</v>
       </c>
       <c r="V14" t="n">
-        <v>615.8629082553415</v>
+        <v>1460.70903114953</v>
       </c>
       <c r="W14" t="n">
-        <v>615.8629082553415</v>
+        <v>1119.399471729564</v>
       </c>
       <c r="X14" t="n">
-        <v>615.8629082553415</v>
+        <v>1119.399471729564</v>
       </c>
       <c r="Y14" t="n">
-        <v>615.8629082553415</v>
+        <v>1119.399471729564</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>949.6185929200449</v>
+        <v>1069.121048873216</v>
       </c>
       <c r="C15" t="n">
-        <v>760.2063186530086</v>
+        <v>879.7087746061794</v>
       </c>
       <c r="D15" t="n">
-        <v>599.4262024140403</v>
+        <v>718.9286583672111</v>
       </c>
       <c r="E15" t="n">
-        <v>425.8629985354547</v>
+        <v>545.3654544886256</v>
       </c>
       <c r="F15" t="n">
-        <v>265.4352822526988</v>
+        <v>384.9377382058697</v>
       </c>
       <c r="G15" t="n">
-        <v>115.9650972944325</v>
+        <v>235.4675532476033</v>
       </c>
       <c r="H15" t="n">
         <v>115.9650972944325</v>
       </c>
       <c r="I15" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J15" t="n">
-        <v>54.25343639154487</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K15" t="n">
         <v>215.1710339715871</v>
       </c>
       <c r="L15" t="n">
-        <v>497.8311447175248</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M15" t="n">
-        <v>872.4368259593776</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.380766676014</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O15" t="n">
         <v>1484.24530923774</v>
       </c>
       <c r="P15" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q15" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R15" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S15" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="T15" t="n">
-        <v>1499.259251415193</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="U15" t="n">
-        <v>1353.795138911652</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="V15" t="n">
-        <v>1353.795138911652</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="W15" t="n">
-        <v>1353.795138911652</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="X15" t="n">
-        <v>1353.795138911652</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="Y15" t="n">
-        <v>1128.15444584698</v>
+        <v>1247.656901800151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.0166340210669</v>
+        <v>177.3726170561361</v>
       </c>
       <c r="C16" t="n">
-        <v>334.0166340210669</v>
+        <v>177.3726170561361</v>
       </c>
       <c r="D16" t="n">
-        <v>334.0166340210669</v>
+        <v>177.3726170561361</v>
       </c>
       <c r="E16" t="n">
-        <v>334.0166340210669</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F16" t="n">
-        <v>334.0166340210669</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G16" t="n">
-        <v>334.0166340210669</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H16" t="n">
-        <v>256.6025402437132</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6713204266156</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J16" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K16" t="n">
-        <v>42.07125390872753</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L16" t="n">
         <v>105.1473006107386</v>
       </c>
       <c r="M16" t="n">
-        <v>180.2480375930233</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N16" t="n">
-        <v>261.579183167833</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O16" t="n">
-        <v>314.7040135792701</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X16" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.0166340210669</v>
+        <v>177.3726170561361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1354.235675709406</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C17" t="n">
-        <v>1354.235675709406</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D17" t="n">
-        <v>1354.235675709406</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E17" t="n">
-        <v>979.0044514047228</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F17" t="n">
-        <v>979.0044514047228</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3875931494798</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H17" t="n">
-        <v>221.7312569219368</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I17" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J17" t="n">
-        <v>79.03615234277382</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K17" t="n">
-        <v>253.4009645124891</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L17" t="n">
-        <v>524.6989948305063</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M17" t="n">
-        <v>855.4462867779241</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N17" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O17" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P17" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q17" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R17" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S17" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T17" t="n">
-        <v>1606.796830082591</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U17" t="n">
-        <v>1354.235675709406</v>
+        <v>1503.004783424349</v>
       </c>
       <c r="V17" t="n">
-        <v>1354.235675709406</v>
+        <v>1503.004783424349</v>
       </c>
       <c r="W17" t="n">
-        <v>1354.235675709406</v>
+        <v>1161.695224004383</v>
       </c>
       <c r="X17" t="n">
-        <v>1354.235675709406</v>
+        <v>798.2783408784171</v>
       </c>
       <c r="Y17" t="n">
-        <v>1354.235675709406</v>
+        <v>412.1313030820031</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>260.7588504711838</v>
+        <v>345.4888681325882</v>
       </c>
       <c r="C18" t="n">
-        <v>71.34657620414751</v>
+        <v>156.0765938655519</v>
       </c>
       <c r="D18" t="n">
-        <v>71.34657620414751</v>
+        <v>156.0765938655519</v>
       </c>
       <c r="E18" t="n">
-        <v>71.34657620414751</v>
+        <v>156.0765938655519</v>
       </c>
       <c r="F18" t="n">
-        <v>34.26540371045431</v>
+        <v>156.0765938655519</v>
       </c>
       <c r="G18" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H18" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I18" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J18" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K18" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="L18" t="n">
-        <v>316.925514456392</v>
+        <v>316.9255144563918</v>
       </c>
       <c r="M18" t="n">
-        <v>691.5311956982448</v>
+        <v>691.5311956982446</v>
       </c>
       <c r="N18" t="n">
-        <v>1094.471464215456</v>
+        <v>1094.471464215455</v>
       </c>
       <c r="O18" t="n">
         <v>1407.336006777182</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.875055820307</v>
+        <v>1636.360883062157</v>
       </c>
       <c r="Q18" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R18" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S18" t="n">
         <v>1446.329267749321</v>
@@ -5627,19 +5627,19 @@
         <v>1232.318333641798</v>
       </c>
       <c r="U18" t="n">
-        <v>992.745132220562</v>
+        <v>992.7451322205616</v>
       </c>
       <c r="V18" t="n">
-        <v>749.6654141241961</v>
+        <v>749.6654141241956</v>
       </c>
       <c r="W18" t="n">
-        <v>480.2668448544874</v>
+        <v>749.6654141241956</v>
       </c>
       <c r="X18" t="n">
-        <v>260.7588504711838</v>
+        <v>749.6654141241956</v>
       </c>
       <c r="Y18" t="n">
-        <v>260.7588504711838</v>
+        <v>524.0247210595232</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.43177019839018</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="C19" t="n">
-        <v>34.26540371045431</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="D19" t="n">
-        <v>34.26540371045431</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="E19" t="n">
-        <v>34.26540371045431</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="F19" t="n">
-        <v>34.26540371045431</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="G19" t="n">
-        <v>34.26540371045431</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="H19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J19" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K19" t="n">
-        <v>42.07125390872753</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L19" t="n">
         <v>105.1473006107386</v>
       </c>
       <c r="M19" t="n">
-        <v>180.2480375930233</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N19" t="n">
-        <v>261.579183167833</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O19" t="n">
-        <v>314.7040135792701</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P19" t="n">
-        <v>334.0166340210669</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.0166340210669</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="R19" t="n">
-        <v>334.0166340210669</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="S19" t="n">
-        <v>334.0166340210669</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="T19" t="n">
-        <v>334.0166340210669</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="U19" t="n">
-        <v>334.0166340210669</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="V19" t="n">
-        <v>86.43177019839018</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="W19" t="n">
-        <v>86.43177019839018</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="X19" t="n">
-        <v>86.43177019839018</v>
+        <v>195.9739798962779</v>
       </c>
       <c r="Y19" t="n">
-        <v>86.43177019839018</v>
+        <v>195.9739798962779</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>795.2784781849662</v>
+        <v>1033.036023769281</v>
       </c>
       <c r="C20" t="n">
-        <v>795.2784781849662</v>
+        <v>1033.036023769281</v>
       </c>
       <c r="D20" t="n">
-        <v>795.2784781849662</v>
+        <v>1033.036023769281</v>
       </c>
       <c r="E20" t="n">
-        <v>795.2784781849662</v>
+        <v>657.8047994645977</v>
       </c>
       <c r="F20" t="n">
-        <v>388.0065088516192</v>
+        <v>250.5328301312508</v>
       </c>
       <c r="G20" t="n">
         <v>34.26540371045431</v>
@@ -5752,22 +5752,22 @@
         <v>34.26540371045431</v>
       </c>
       <c r="J20" t="n">
-        <v>79.03615234277382</v>
+        <v>79.03615234277413</v>
       </c>
       <c r="K20" t="n">
-        <v>253.4009645124891</v>
+        <v>253.4009645124897</v>
       </c>
       <c r="L20" t="n">
-        <v>524.6989948305061</v>
+        <v>524.6989948305068</v>
       </c>
       <c r="M20" t="n">
-        <v>855.446286777924</v>
+        <v>855.4462867779247</v>
       </c>
       <c r="N20" t="n">
         <v>1184.702979677705</v>
       </c>
       <c r="O20" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P20" t="n">
         <v>1648.405101797589</v>
@@ -5776,28 +5776,28 @@
         <v>1713.270185522716</v>
       </c>
       <c r="R20" t="n">
-        <v>1713.270185522716</v>
+        <v>1607.629543432273</v>
       </c>
       <c r="S20" t="n">
-        <v>1713.270185522716</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="T20" t="n">
-        <v>1713.270185522716</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="U20" t="n">
-        <v>1460.709031149531</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="V20" t="n">
-        <v>1136.588037604933</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="W20" t="n">
-        <v>795.2784781849662</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="X20" t="n">
-        <v>795.2784781849662</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="Y20" t="n">
-        <v>795.2784781849662</v>
+        <v>1410.901923140829</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.9650972944325</v>
+        <v>987.4213552892377</v>
       </c>
       <c r="C21" t="n">
-        <v>115.9650972944325</v>
+        <v>798.0090810222014</v>
       </c>
       <c r="D21" t="n">
-        <v>115.9650972944325</v>
+        <v>637.2289647832331</v>
       </c>
       <c r="E21" t="n">
-        <v>115.9650972944325</v>
+        <v>463.6657609046475</v>
       </c>
       <c r="F21" t="n">
-        <v>115.9650972944325</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="G21" t="n">
-        <v>115.9650972944325</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I21" t="n">
         <v>34.26540371045431</v>
       </c>
       <c r="J21" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K21" t="n">
-        <v>111.1747061710121</v>
+        <v>57.42828524662353</v>
       </c>
       <c r="L21" t="n">
-        <v>393.8348169169497</v>
+        <v>340.0883959925611</v>
       </c>
       <c r="M21" t="n">
-        <v>768.4404981588026</v>
+        <v>678.0453684563944</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.380766676014</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O21" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P21" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q21" t="n">
         <v>1713.270185522716</v>
       </c>
       <c r="R21" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S21" t="n">
-        <v>1446.329267749321</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T21" t="n">
-        <v>1232.318333641798</v>
+        <v>1499.259251415193</v>
       </c>
       <c r="U21" t="n">
-        <v>992.745132220562</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V21" t="n">
-        <v>749.6654141241961</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="W21" t="n">
-        <v>480.2668448544874</v>
+        <v>990.2874807242478</v>
       </c>
       <c r="X21" t="n">
-        <v>294.5009502213676</v>
+        <v>990.2874807242478</v>
       </c>
       <c r="Y21" t="n">
-        <v>294.5009502213676</v>
+        <v>990.2874807242478</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K22" t="n">
-        <v>1421.324805410376</v>
+        <v>42.07125390872751</v>
       </c>
       <c r="L22" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M22" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N22" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O22" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P22" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q22" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R22" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S22" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T22" t="n">
-        <v>1713.270185522716</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.270185522716</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="V22" t="n">
-        <v>1465.685321700039</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="W22" t="n">
-        <v>1413.518955212103</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="X22" t="n">
-        <v>1413.518955212103</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="Y22" t="n">
-        <v>1413.518955212103</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1713.270185522715</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="C23" t="n">
-        <v>1713.270185522715</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="D23" t="n">
-        <v>1574.04179183127</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="E23" t="n">
-        <v>1198.810567526587</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="F23" t="n">
-        <v>791.5385981932402</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="G23" t="n">
-        <v>369.9217399379972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H23" t="n">
         <v>34.2654037104543</v>
@@ -5989,19 +5989,19 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J23" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K23" t="n">
-        <v>253.4009645124893</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L23" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M23" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N23" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O23" t="n">
         <v>1458.701379414585</v>
@@ -6013,28 +6013,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R23" t="n">
-        <v>1713.270185522715</v>
+        <v>1607.629543432272</v>
       </c>
       <c r="S23" t="n">
-        <v>1713.270185522715</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="T23" t="n">
-        <v>1713.270185522715</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="U23" t="n">
-        <v>1713.270185522715</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="V23" t="n">
-        <v>1713.270185522715</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="W23" t="n">
-        <v>1713.270185522715</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="X23" t="n">
-        <v>1713.270185522715</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="Y23" t="n">
-        <v>1713.270185522715</v>
+        <v>1024.754885344415</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1039.695070261399</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C24" t="n">
-        <v>850.2827959943625</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D24" t="n">
-        <v>689.5026797553942</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E24" t="n">
-        <v>515.9394758768086</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F24" t="n">
-        <v>355.5117595940527</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4675532476033</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I24" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="J24" t="n">
-        <v>34.2654037104543</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K24" t="n">
-        <v>195.1830012904965</v>
+        <v>207.3185066907147</v>
       </c>
       <c r="L24" t="n">
-        <v>477.843112036434</v>
+        <v>489.9786174366522</v>
       </c>
       <c r="M24" t="n">
-        <v>678.0453684563939</v>
+        <v>864.584298678505</v>
       </c>
       <c r="N24" t="n">
-        <v>1080.985636973605</v>
+        <v>1267.524567195716</v>
       </c>
       <c r="O24" t="n">
-        <v>1393.850179535331</v>
+        <v>1580.389109757442</v>
       </c>
       <c r="P24" t="n">
         <v>1622.875055820307</v>
@@ -6098,22 +6098,22 @@
         <v>1713.270185522715</v>
       </c>
       <c r="T24" t="n">
-        <v>1713.270185522715</v>
+        <v>1599.413707139713</v>
       </c>
       <c r="U24" t="n">
-        <v>1713.270185522715</v>
+        <v>1359.840505718476</v>
       </c>
       <c r="V24" t="n">
-        <v>1713.270185522715</v>
+        <v>1116.76078762211</v>
       </c>
       <c r="W24" t="n">
-        <v>1443.871616253006</v>
+        <v>847.3622183524017</v>
       </c>
       <c r="X24" t="n">
-        <v>1443.871616253006</v>
+        <v>627.854223969098</v>
       </c>
       <c r="Y24" t="n">
-        <v>1218.230923188334</v>
+        <v>402.2135309044257</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="C25" t="n">
-        <v>1713.270185522715</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="D25" t="n">
-        <v>1713.270185522715</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="E25" t="n">
-        <v>1713.270185522715</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="F25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G25" t="n">
-        <v>1713.270185522715</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H25" t="n">
-        <v>1551.561609336891</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I25" t="n">
-        <v>1488.924871928264</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J25" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K25" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L25" t="n">
-        <v>1484.400852112387</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M25" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N25" t="n">
-        <v>1640.832734669481</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O25" t="n">
-        <v>1693.957565080918</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y25" t="n">
-        <v>1713.270185522715</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.7312569219369</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="C26" t="n">
-        <v>221.7312569219369</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="D26" t="n">
-        <v>221.7312569219369</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="E26" t="n">
-        <v>221.7312569219369</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="F26" t="n">
-        <v>221.7312569219369</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="G26" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H26" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I26" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J26" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K26" t="n">
-        <v>253.4009645124894</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L26" t="n">
-        <v>524.6989948305065</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M26" t="n">
-        <v>855.4462867779243</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N26" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O26" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P26" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q26" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R26" t="n">
-        <v>1607.629543432273</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="S26" t="n">
-        <v>1410.901923140829</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="T26" t="n">
-        <v>1410.901923140829</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="U26" t="n">
-        <v>1158.340768767644</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="V26" t="n">
-        <v>834.2197752230464</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="W26" t="n">
-        <v>492.9102158030799</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="X26" t="n">
-        <v>221.7312569219369</v>
+        <v>1627.167168467007</v>
       </c>
       <c r="Y26" t="n">
-        <v>221.7312569219369</v>
+        <v>1241.020130670593</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>802.7480508464021</v>
+        <v>558.0209980950444</v>
       </c>
       <c r="C27" t="n">
-        <v>802.7480508464021</v>
+        <v>368.6087238280081</v>
       </c>
       <c r="D27" t="n">
-        <v>641.9679346074338</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E27" t="n">
-        <v>468.4047307288482</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F27" t="n">
-        <v>307.9770144460923</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G27" t="n">
-        <v>158.5068294878259</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H27" t="n">
-        <v>39.00437353465504</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K27" t="n">
-        <v>111.1747061710125</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L27" t="n">
-        <v>393.83481691695</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M27" t="n">
-        <v>768.4404981588028</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.380766676014</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O27" t="n">
         <v>1484.24530923774</v>
       </c>
       <c r="P27" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q27" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R27" t="n">
-        <v>1713.270185522716</v>
+        <v>1708.116334192594</v>
       </c>
       <c r="S27" t="n">
-        <v>1713.270185522716</v>
+        <v>1708.116334192594</v>
       </c>
       <c r="T27" t="n">
-        <v>1713.270185522716</v>
+        <v>1708.116334192594</v>
       </c>
       <c r="U27" t="n">
-        <v>1713.270185522716</v>
+        <v>1468.543132771358</v>
       </c>
       <c r="V27" t="n">
-        <v>1470.19046742635</v>
+        <v>1225.463414674992</v>
       </c>
       <c r="W27" t="n">
-        <v>1200.791898156641</v>
+        <v>956.0648454052832</v>
       </c>
       <c r="X27" t="n">
-        <v>981.2839037733372</v>
+        <v>736.5568510219796</v>
       </c>
       <c r="Y27" t="n">
-        <v>981.2839037733372</v>
+        <v>736.5568510219796</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K28" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L28" t="n">
         <v>105.1473006107386</v>
@@ -6411,25 +6411,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S28" t="n">
-        <v>107.5511362737878</v>
+        <v>281.850267533131</v>
       </c>
       <c r="T28" t="n">
-        <v>107.5511362737878</v>
+        <v>281.850267533131</v>
       </c>
       <c r="U28" t="n">
-        <v>107.5511362737878</v>
+        <v>281.850267533131</v>
       </c>
       <c r="V28" t="n">
-        <v>107.5511362737878</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="W28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.26540371045431</v>
+        <v>729.1923299967232</v>
       </c>
       <c r="C29" t="n">
-        <v>34.26540371045431</v>
+        <v>375.4494033490677</v>
       </c>
       <c r="D29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J29" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K29" t="n">
-        <v>253.4009645124897</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L29" t="n">
-        <v>524.6989948305068</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M29" t="n">
-        <v>855.4462867779247</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N29" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O29" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P29" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q29" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R29" t="n">
-        <v>1645.987497888842</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S29" t="n">
-        <v>1449.259877597399</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T29" t="n">
-        <v>1449.259877597399</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U29" t="n">
-        <v>1449.259877597399</v>
+        <v>1460.70903114953</v>
       </c>
       <c r="V29" t="n">
-        <v>1125.138884052801</v>
+        <v>1136.588037604932</v>
       </c>
       <c r="W29" t="n">
-        <v>783.8293246328342</v>
+        <v>1115.339367793137</v>
       </c>
       <c r="X29" t="n">
-        <v>420.4124415068684</v>
+        <v>1115.339367793137</v>
       </c>
       <c r="Y29" t="n">
-        <v>34.26540371045431</v>
+        <v>729.1923299967232</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>503.9602501696297</v>
+        <v>558.0209980950444</v>
       </c>
       <c r="C30" t="n">
-        <v>314.5479759025935</v>
+        <v>368.6087238280081</v>
       </c>
       <c r="D30" t="n">
-        <v>153.7678596636252</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E30" t="n">
-        <v>153.7678596636252</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F30" t="n">
-        <v>153.7678596636252</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G30" t="n">
-        <v>153.7678596636252</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H30" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I30" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J30" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K30" t="n">
         <v>195.1830012904965</v>
       </c>
       <c r="L30" t="n">
-        <v>477.843112036434</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M30" t="n">
-        <v>852.4487932782868</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N30" t="n">
-        <v>1255.389061795498</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O30" t="n">
-        <v>1568.253604357224</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P30" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q30" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R30" t="n">
-        <v>1631.679303872713</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S30" t="n">
-        <v>1452.58364803277</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T30" t="n">
-        <v>1238.572713925247</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U30" t="n">
-        <v>998.9995125040108</v>
+        <v>1474.675831452726</v>
       </c>
       <c r="V30" t="n">
-        <v>998.9995125040108</v>
+        <v>1231.596113356361</v>
       </c>
       <c r="W30" t="n">
-        <v>729.6009432343021</v>
+        <v>962.197544086652</v>
       </c>
       <c r="X30" t="n">
-        <v>729.6009432343021</v>
+        <v>962.197544086652</v>
       </c>
       <c r="Y30" t="n">
-        <v>503.9602501696297</v>
+        <v>736.5568510219796</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K31" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L31" t="n">
         <v>105.1473006107386</v>
@@ -6645,28 +6645,28 @@
         <v>334.0166340210667</v>
       </c>
       <c r="R31" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S31" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T31" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U31" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V31" t="n">
-        <v>34.26540371045431</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W31" t="n">
-        <v>34.26540371045431</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="X31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>607.9476889347858</v>
+        <v>1216.8971579467</v>
       </c>
       <c r="C32" t="n">
-        <v>254.2047622871304</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="D32" t="n">
-        <v>254.2047622871304</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="E32" t="n">
-        <v>254.2047622871304</v>
+        <v>863.1542312990443</v>
       </c>
       <c r="F32" t="n">
-        <v>254.2047622871304</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="G32" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H32" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I32" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J32" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277413</v>
       </c>
       <c r="K32" t="n">
-        <v>253.400964512489</v>
+        <v>253.4009645124897</v>
       </c>
       <c r="L32" t="n">
-        <v>524.698994830506</v>
+        <v>524.6989948305068</v>
       </c>
       <c r="M32" t="n">
-        <v>855.4462867779238</v>
+        <v>855.4462867779245</v>
       </c>
       <c r="N32" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P32" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q32" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R32" t="n">
-        <v>1713.270185522715</v>
+        <v>1607.629543432273</v>
       </c>
       <c r="S32" t="n">
-        <v>1713.270185522715</v>
+        <v>1607.629543432273</v>
       </c>
       <c r="T32" t="n">
-        <v>1713.270185522715</v>
+        <v>1607.629543432273</v>
       </c>
       <c r="U32" t="n">
-        <v>1713.270185522715</v>
+        <v>1541.018151491298</v>
       </c>
       <c r="V32" t="n">
-        <v>1713.270185522715</v>
+        <v>1216.8971579467</v>
       </c>
       <c r="W32" t="n">
-        <v>1371.960626102749</v>
+        <v>1216.8971579467</v>
       </c>
       <c r="X32" t="n">
-        <v>1371.960626102749</v>
+        <v>1216.8971579467</v>
       </c>
       <c r="Y32" t="n">
-        <v>985.8135883063346</v>
+        <v>1216.8971579467</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>516.0700092874283</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C33" t="n">
-        <v>326.657735020392</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8776187814238</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8776187814238</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F33" t="n">
-        <v>165.8776187814238</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G33" t="n">
-        <v>165.8776187814238</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H33" t="n">
-        <v>46.37516282825287</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I33" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J33" t="n">
-        <v>54.25343639154484</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K33" t="n">
-        <v>54.25343639154484</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L33" t="n">
-        <v>303.4396872145412</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M33" t="n">
-        <v>678.0453684563939</v>
+        <v>852.4487932782868</v>
       </c>
       <c r="N33" t="n">
-        <v>1080.985636973605</v>
+        <v>1255.389061795498</v>
       </c>
       <c r="O33" t="n">
-        <v>1393.850179535331</v>
+        <v>1568.253604357224</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="Q33" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R33" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S33" t="n">
-        <v>1713.270185522715</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T33" t="n">
-        <v>1713.270185522715</v>
+        <v>1420.877854212777</v>
       </c>
       <c r="U33" t="n">
-        <v>1473.696984101479</v>
+        <v>1181.304652791541</v>
       </c>
       <c r="V33" t="n">
-        <v>1230.617266005113</v>
+        <v>938.2249346951752</v>
       </c>
       <c r="W33" t="n">
-        <v>961.2186967354043</v>
+        <v>668.8263654254665</v>
       </c>
       <c r="X33" t="n">
-        <v>741.7107023521006</v>
+        <v>449.3183710421629</v>
       </c>
       <c r="Y33" t="n">
-        <v>516.0700092874283</v>
+        <v>223.6776779774906</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>154.6056030463514</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J34" t="n">
-        <v>34.2654037104543</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K34" t="n">
-        <v>42.0712539087275</v>
+        <v>42.07125390872751</v>
       </c>
       <c r="L34" t="n">
         <v>105.1473006107386</v>
@@ -6885,25 +6885,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S34" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="T34" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="U34" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="V34" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="W34" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="X34" t="n">
-        <v>334.0166340210667</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="Y34" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>643.3481151771798</v>
+        <v>1119.399471729564</v>
       </c>
       <c r="C35" t="n">
-        <v>643.3481151771798</v>
+        <v>1119.399471729564</v>
       </c>
       <c r="D35" t="n">
-        <v>643.3481151771798</v>
+        <v>778.2154720909502</v>
       </c>
       <c r="E35" t="n">
-        <v>643.3481151771798</v>
+        <v>402.9842477862672</v>
       </c>
       <c r="F35" t="n">
-        <v>643.3481151771798</v>
+        <v>402.9842477862672</v>
       </c>
       <c r="G35" t="n">
-        <v>221.7312569219369</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H35" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I35" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J35" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K35" t="n">
-        <v>253.4009645124893</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L35" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M35" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N35" t="n">
         <v>1184.702979677704</v>
@@ -6955,34 +6955,34 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P35" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q35" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R35" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S35" t="n">
-        <v>1602.987764642399</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T35" t="n">
-        <v>1384.630897674695</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U35" t="n">
-        <v>1384.630897674695</v>
+        <v>1460.70903114953</v>
       </c>
       <c r="V35" t="n">
-        <v>1384.630897674695</v>
+        <v>1460.70903114953</v>
       </c>
       <c r="W35" t="n">
-        <v>1384.630897674695</v>
+        <v>1119.399471729564</v>
       </c>
       <c r="X35" t="n">
-        <v>1021.214014548729</v>
+        <v>1119.399471729564</v>
       </c>
       <c r="Y35" t="n">
-        <v>1021.214014548729</v>
+        <v>1119.399471729564</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>875.5747110402815</v>
+        <v>223.6776779774906</v>
       </c>
       <c r="C36" t="n">
-        <v>686.1624367732452</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D36" t="n">
-        <v>525.3823205342769</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E36" t="n">
-        <v>351.8191166556913</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F36" t="n">
-        <v>191.3914003729354</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G36" t="n">
-        <v>41.92121541466906</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H36" t="n">
-        <v>41.92121541466906</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I36" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J36" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K36" t="n">
-        <v>215.1710339715871</v>
+        <v>57.42828524662352</v>
       </c>
       <c r="L36" t="n">
-        <v>497.8311447175246</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M36" t="n">
-        <v>678.0453684563944</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N36" t="n">
         <v>1080.985636973605</v>
       </c>
       <c r="O36" t="n">
-        <v>1393.850179535332</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P36" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q36" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R36" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S36" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T36" t="n">
-        <v>1499.259251415193</v>
+        <v>1599.413707139713</v>
       </c>
       <c r="U36" t="n">
-        <v>1499.259251415193</v>
+        <v>1359.840505718476</v>
       </c>
       <c r="V36" t="n">
-        <v>1499.259251415193</v>
+        <v>1116.76078762211</v>
       </c>
       <c r="W36" t="n">
-        <v>1499.259251415193</v>
+        <v>847.3622183524017</v>
       </c>
       <c r="X36" t="n">
-        <v>1279.751257031889</v>
+        <v>627.854223969098</v>
       </c>
       <c r="Y36" t="n">
-        <v>1054.110563967217</v>
+        <v>402.2135309044257</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="C37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="D37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="E37" t="n">
-        <v>34.26540371045431</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="F37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K37" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L37" t="n">
         <v>105.1473006107386</v>
@@ -7122,25 +7122,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S37" t="n">
-        <v>107.5511362737878</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T37" t="n">
-        <v>107.5511362737878</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="U37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="V37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="W37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="X37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.26540371045431</v>
+        <v>317.7028011151732</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>979.0044514047228</v>
+        <v>622.3967051803688</v>
       </c>
       <c r="C38" t="n">
-        <v>979.0044514047228</v>
+        <v>268.6537785327134</v>
       </c>
       <c r="D38" t="n">
-        <v>979.0044514047228</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E38" t="n">
-        <v>979.0044514047228</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F38" t="n">
-        <v>979.0044514047228</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G38" t="n">
-        <v>557.3875931494798</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H38" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I38" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J38" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K38" t="n">
-        <v>253.4009645124897</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L38" t="n">
-        <v>524.6989948305068</v>
+        <v>524.6989948305061</v>
       </c>
       <c r="M38" t="n">
-        <v>855.4462867779248</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N38" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O38" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P38" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q38" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R38" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S38" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T38" t="n">
-        <v>1365.151489201137</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U38" t="n">
-        <v>1365.151489201137</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V38" t="n">
-        <v>1365.151489201137</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="W38" t="n">
-        <v>1365.151489201137</v>
+        <v>1371.960626102749</v>
       </c>
       <c r="X38" t="n">
-        <v>1365.151489201137</v>
+        <v>1008.543742976783</v>
       </c>
       <c r="Y38" t="n">
-        <v>979.0044514047228</v>
+        <v>622.3967051803688</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>302.0590751799058</v>
+        <v>397.2408818560762</v>
       </c>
       <c r="C39" t="n">
-        <v>112.6468009128696</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="D39" t="n">
-        <v>112.6468009128696</v>
+        <v>207.8286075890398</v>
       </c>
       <c r="E39" t="n">
-        <v>112.6468009128696</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F39" t="n">
-        <v>112.6468009128696</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G39" t="n">
-        <v>112.6468009128696</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H39" t="n">
-        <v>112.6468009128696</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I39" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J39" t="n">
-        <v>54.25343639154485</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K39" t="n">
-        <v>57.42828524662353</v>
+        <v>37.44025256553298</v>
       </c>
       <c r="L39" t="n">
-        <v>340.0883959925611</v>
+        <v>320.1003633114705</v>
       </c>
       <c r="M39" t="n">
-        <v>714.6940772344138</v>
+        <v>694.7060445533233</v>
       </c>
       <c r="N39" t="n">
-        <v>1117.634345751625</v>
+        <v>1097.646313070534</v>
       </c>
       <c r="O39" t="n">
-        <v>1430.498888313351</v>
+        <v>1410.51085563226</v>
       </c>
       <c r="P39" t="n">
-        <v>1659.523764598327</v>
+        <v>1639.535731917236</v>
       </c>
       <c r="Q39" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R39" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S39" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T39" t="n">
-        <v>1499.259251415193</v>
+        <v>1594.441058091363</v>
       </c>
       <c r="U39" t="n">
-        <v>1259.686049993956</v>
+        <v>1354.867856670127</v>
       </c>
       <c r="V39" t="n">
-        <v>1016.606331897591</v>
+        <v>1111.788138573761</v>
       </c>
       <c r="W39" t="n">
-        <v>747.2077626278818</v>
+        <v>842.3895693040522</v>
       </c>
       <c r="X39" t="n">
-        <v>527.6997682445782</v>
+        <v>622.8815749207486</v>
       </c>
       <c r="Y39" t="n">
-        <v>302.0590751799058</v>
+        <v>397.2408818560762</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K40" t="n">
-        <v>1421.324805410376</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L40" t="n">
-        <v>1484.400852112388</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M40" t="n">
-        <v>1559.501589094672</v>
+        <v>180.2480375930232</v>
       </c>
       <c r="N40" t="n">
-        <v>1640.832734669482</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O40" t="n">
-        <v>1693.957565080919</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T40" t="n">
-        <v>1713.270185522716</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U40" t="n">
-        <v>1713.270185522716</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V40" t="n">
-        <v>1713.270185522716</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.027047048639</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y40" t="n">
-        <v>1413.518955212103</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>723.6646665856526</v>
+        <v>585.8403652287865</v>
       </c>
       <c r="C41" t="n">
-        <v>369.9217399379973</v>
+        <v>585.8403652287865</v>
       </c>
       <c r="D41" t="n">
-        <v>369.9217399379973</v>
+        <v>585.8403652287865</v>
       </c>
       <c r="E41" t="n">
-        <v>369.9217399379973</v>
+        <v>210.6091409241035</v>
       </c>
       <c r="F41" t="n">
-        <v>369.9217399379973</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9217399379973</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I41" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J41" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K41" t="n">
-        <v>253.4009645124897</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L41" t="n">
-        <v>524.6989948305068</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M41" t="n">
-        <v>855.4462867779246</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N41" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O41" t="n">
-        <v>1458.701379414586</v>
+        <v>1458.701379414585</v>
       </c>
       <c r="P41" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q41" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R41" t="n">
-        <v>1678.212713874985</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S41" t="n">
-        <v>1678.212713874985</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T41" t="n">
-        <v>1678.212713874985</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U41" t="n">
-        <v>1425.6515595018</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V41" t="n">
-        <v>1101.530565957201</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="W41" t="n">
-        <v>1101.530565957201</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="X41" t="n">
-        <v>1101.530565957201</v>
+        <v>1349.853302396749</v>
       </c>
       <c r="Y41" t="n">
-        <v>1101.530565957201</v>
+        <v>963.7062646003353</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>799.0730036613477</v>
+        <v>195.0455199494226</v>
       </c>
       <c r="C42" t="n">
-        <v>609.6607293943114</v>
+        <v>195.0455199494226</v>
       </c>
       <c r="D42" t="n">
-        <v>448.8806131553431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E42" t="n">
-        <v>275.3174092767575</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F42" t="n">
-        <v>114.8896929940016</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G42" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H42" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I42" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J42" t="n">
-        <v>54.25343639154485</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K42" t="n">
-        <v>215.1710339715871</v>
+        <v>37.44025256553298</v>
       </c>
       <c r="L42" t="n">
-        <v>497.8311447175246</v>
+        <v>320.1003633114705</v>
       </c>
       <c r="M42" t="n">
-        <v>872.4368259593773</v>
+        <v>694.7060445533233</v>
       </c>
       <c r="N42" t="n">
-        <v>1275.377094476588</v>
+        <v>1097.646313070534</v>
       </c>
       <c r="O42" t="n">
-        <v>1484.24530923774</v>
+        <v>1410.51085563226</v>
       </c>
       <c r="P42" t="n">
-        <v>1713.270185522716</v>
+        <v>1639.535731917236</v>
       </c>
       <c r="Q42" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R42" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S42" t="n">
         <v>1446.329267749321</v>
       </c>
       <c r="T42" t="n">
-        <v>1446.329267749321</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="U42" t="n">
-        <v>1446.329267749321</v>
+        <v>1105.567654625736</v>
       </c>
       <c r="V42" t="n">
-        <v>1203.249549652955</v>
+        <v>862.4879365293699</v>
       </c>
       <c r="W42" t="n">
-        <v>1203.249549652955</v>
+        <v>593.0893672596612</v>
       </c>
       <c r="X42" t="n">
-        <v>1203.249549652955</v>
+        <v>373.5813728763576</v>
       </c>
       <c r="Y42" t="n">
-        <v>977.6088565882828</v>
+        <v>373.5813728763576</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C43" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D43" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E43" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J43" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K43" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L43" t="n">
         <v>105.1473006107386</v>
@@ -7608,13 +7608,13 @@
         <v>86.43177019839001</v>
       </c>
       <c r="W43" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X43" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.43177019839001</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>729.1923299967232</v>
+        <v>433.9502233137908</v>
       </c>
       <c r="C44" t="n">
-        <v>375.4494033490678</v>
+        <v>433.9502233137908</v>
       </c>
       <c r="D44" t="n">
-        <v>34.26540371045431</v>
+        <v>92.7662236751774</v>
       </c>
       <c r="E44" t="n">
-        <v>34.26540371045431</v>
+        <v>92.7662236751774</v>
       </c>
       <c r="F44" t="n">
-        <v>34.26540371045431</v>
+        <v>92.7662236751774</v>
       </c>
       <c r="G44" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H44" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I44" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J44" t="n">
-        <v>79.03615234277379</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K44" t="n">
-        <v>253.4009645124891</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L44" t="n">
-        <v>524.6989948305061</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M44" t="n">
         <v>855.4462867779239</v>
@@ -7669,31 +7669,31 @@
         <v>1648.405101797588</v>
       </c>
       <c r="Q44" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R44" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S44" t="n">
-        <v>1607.629543432273</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T44" t="n">
-        <v>1607.629543432273</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="U44" t="n">
-        <v>1607.629543432273</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="V44" t="n">
-        <v>1456.648927213104</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="W44" t="n">
-        <v>1115.339367793137</v>
+        <v>1175.233005811305</v>
       </c>
       <c r="X44" t="n">
-        <v>1115.339367793137</v>
+        <v>811.8161226853397</v>
       </c>
       <c r="Y44" t="n">
-        <v>729.1923299967232</v>
+        <v>811.8161226853397</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>707.4911830533108</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C45" t="n">
-        <v>518.0789087862745</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D45" t="n">
-        <v>357.2987925473062</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E45" t="n">
-        <v>183.7355886687207</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F45" t="n">
-        <v>183.7355886687207</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I45" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J45" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K45" t="n">
         <v>215.1710339715871</v>
@@ -7739,40 +7739,40 @@
         <v>872.4368259593773</v>
       </c>
       <c r="N45" t="n">
-        <v>1275.377094476588</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O45" t="n">
-        <v>1588.241637038315</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P45" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q45" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S45" t="n">
-        <v>1446.329267749321</v>
+        <v>1624.012366980199</v>
       </c>
       <c r="T45" t="n">
-        <v>1232.318333641798</v>
+        <v>1410.001432872676</v>
       </c>
       <c r="U45" t="n">
-        <v>1155.425605249955</v>
+        <v>1170.42823145144</v>
       </c>
       <c r="V45" t="n">
-        <v>1155.425605249955</v>
+        <v>927.348513355074</v>
       </c>
       <c r="W45" t="n">
-        <v>886.027035980246</v>
+        <v>657.9499440853654</v>
       </c>
       <c r="X45" t="n">
-        <v>886.027035980246</v>
+        <v>438.4419497020617</v>
       </c>
       <c r="Y45" t="n">
-        <v>886.027035980246</v>
+        <v>212.8012566373894</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K46" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L46" t="n">
         <v>105.1473006107386</v>
@@ -7836,22 +7836,22 @@
         <v>334.0166340210667</v>
       </c>
       <c r="T46" t="n">
-        <v>325.8021570019304</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U46" t="n">
-        <v>34.26540371045431</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="V46" t="n">
-        <v>34.26540371045431</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>176.9203908159872</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O3" t="n">
         <v>174.1352738833231</v>
       </c>
       <c r="P3" t="n">
-        <v>166.9656464766077</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8303,10 +8303,10 @@
         <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
-        <v>176.9203908159872</v>
+        <v>173.5713770459633</v>
       </c>
       <c r="N6" t="n">
-        <v>160.4047444027676</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O6" t="n">
         <v>177.484287653347</v>
@@ -8537,19 +8537,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>174.1352738833231</v>
+        <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8771,7 +8771,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>8.830445725522424</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.3181027326877</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9017,16 +9017,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>205.567062816466</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913207</v>
+        <v>150.1759871331641</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.82187063221565</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.830445725522424</v>
+        <v>8.830445725522452</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9260,10 +9260,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>192.7418263596382</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>122.5080347337893</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,7 +9482,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>86.51660982709595</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.82187063221565</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9725,7 +9725,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>125.6118057323304</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
         <v>310.6138585746227</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K33" t="n">
-        <v>8.830445725522452</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.51705889948337</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11153,13 +11153,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
-        <v>150.1759871331646</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476187</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11387,13 +11387,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>310.6138585746227</v>
+        <v>114.2588509958516</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>10.00886649990861</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1300824528302</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>347.0996646829039</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>269.8558546175755</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23323,7 +23323,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>130.5447319090401</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.88269664813838</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.96680931411737</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S12" t="n">
         <v>177.3046992815431</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>165.5619366170306</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>145.4619076189266</v>
       </c>
       <c r="J13" t="n">
-        <v>25.55861665566639</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S13" t="n">
         <v>224.2008427698061</v>
       </c>
       <c r="T13" t="n">
-        <v>221.0064803333194</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>288.6213857585613</v>
@@ -23481,7 +23481,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>146.1722177340556</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -23497,22 +23497,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>50.60093174391028</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>173.9189330385198</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I14" t="n">
         <v>185.5911946793677</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.96680931411737</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>177.3046992815431</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>93.16799802851907</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23642,7 +23642,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>61.26476932925192</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -23670,13 +23670,13 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H16" t="n">
-        <v>83.45153758438528</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.22331673875182</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R16" t="n">
         <v>174.4371603754213</v>
@@ -23721,7 +23721,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>62.06369601888719</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -23740,19 +23740,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7603440885287</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T17" t="n">
-        <v>110.7646764123043</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>41.87279475207106</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>122.1130783511721</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9754831086837</v>
+        <v>27.38240485513712</v>
       </c>
       <c r="H18" t="n">
         <v>118.3074313936392</v>
       </c>
       <c r="I18" t="n">
-        <v>80.88269664813838</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>114.8124781489158</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23907,7 +23907,7 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0914904239654</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>145.4619076189266</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.22331673875182</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>174.4371603754213</v>
@@ -23946,10 +23946,10 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213857585613</v>
+        <v>225.1824749137723</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
         <v>290.3107070893353</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
@@ -23977,13 +23977,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>67.19699558293729</v>
+        <v>203.295937516102</v>
       </c>
       <c r="H20" t="n">
         <v>332.2997728652675</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7603440885287</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>173.9130302170058</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>33.40467875268197</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.22331673875182</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R22" t="n">
         <v>174.4371603754213</v>
@@ -24180,22 +24180,22 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0064803333194</v>
+        <v>141.3940351399816</v>
       </c>
       <c r="U22" t="n">
         <v>288.6213857585613</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>238.666004266279</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>214.1025928729163</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>199.9360498876967</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I23" t="n">
         <v>185.5911946793677</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1732982980278</v>
@@ -24274,7 +24274,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24290,22 +24290,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>29.13171882569885</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,19 +24338,19 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8708247664476</v>
+        <v>99.15291116727515</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>8.630345182912777</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24375,19 +24375,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>168.0559694104069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I25" t="n">
-        <v>83.45153758438553</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
@@ -24454,16 +24454,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>332.2997728652675</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>19.34224878438754</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T26" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>91.31554500237456</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I27" t="n">
-        <v>76.19111652217967</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.9668093141174</v>
+        <v>81.86449649729747</v>
       </c>
       <c r="S27" t="n">
         <v>177.3046992815431</v>
@@ -24578,7 +24578,7 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.5561399467498</v>
       </c>
       <c r="T28" t="n">
         <v>221.0064803333194</v>
@@ -24660,10 +24660,10 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V28" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>217.7578318516352</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24682,10 +24682,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.97437491200365</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T29" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>316.8602807120898</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -24776,7 +24776,7 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I30" t="n">
         <v>80.88269664813839</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.191836480614455</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.9690588777351934</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S31" t="n">
         <v>224.2008427698061</v>
@@ -24897,13 +24897,13 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V31" t="n">
-        <v>122.792457552365</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>215.4764444900716</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>199.6607246817812</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2997728652675</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>194.7603440885288</v>
@@ -24973,19 +24973,19 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0355428294531</v>
+        <v>184.0902648078881</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -25013,10 +25013,10 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I33" t="n">
-        <v>68.89403512151782</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S33" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8708247664476</v>
+        <v>99.70711605115201</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>47.3203836294342</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -25125,7 +25125,7 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S34" t="n">
-        <v>224.2008427698061</v>
+        <v>144.5883975764683</v>
       </c>
       <c r="T34" t="n">
         <v>221.0064803333194</v>
@@ -25143,7 +25143,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>384.6688069029032</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S35" t="n">
-        <v>190.1649830865544</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H36" t="n">
         <v>118.3074313936392</v>
       </c>
       <c r="I36" t="n">
-        <v>73.30344306096579</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,16 +25286,16 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>99.15291116727515</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>168.0559694104069</v>
@@ -25362,13 +25362,13 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0064803333194</v>
+        <v>204.8557857564848</v>
       </c>
       <c r="U37" t="n">
-        <v>216.0685105208612</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25393,10 +25393,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>105.7276685681908</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
@@ -25405,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T38" t="n">
-        <v>170.8803686977322</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U38" t="n">
         <v>250.0355428294531</v>
@@ -25453,10 +25453,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25478,7 +25478,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -25490,7 +25490,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I39" t="n">
-        <v>3.285113417747297</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>94.22998860940918</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213857585613</v>
+        <v>282.1783748403903</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>215.4764444900718</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>228.6189497985008</v>
       </c>
       <c r="G41" t="n">
         <v>417.4006896726905</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I41" t="n">
         <v>185.5911946793677</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.87733873828475</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S41" t="n">
         <v>194.7603440885288</v>
@@ -25684,19 +25684,19 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,19 +25709,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>68.15743671797188</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H42" t="n">
         <v>118.3074313936392</v>
@@ -25760,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1774694070239</v>
+        <v>111.6942971811226</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>87.28217939539032</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.0559694104069</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>238.666004266279</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4006896726905</v>
+        <v>359.4848779076146</v>
       </c>
       <c r="H44" t="n">
         <v>332.2997728652675</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1732982980278</v>
@@ -25924,16 +25924,16 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V44" t="n">
-        <v>171.4089735521748</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H45" t="n">
         <v>118.3074313936392</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>88.93945892445215</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>161.0536682990986</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26076,16 +26076,16 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T46" t="n">
-        <v>212.8741480843744</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.1783748403903</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563150.2376893418</v>
+        <v>563150.2376893417</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>563150.2376893419</v>
+        <v>563150.2376893417</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>563150.237689342</v>
+        <v>563150.2376893419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>563150.2376893419</v>
+        <v>563150.2376893417</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>563150.2376893418</v>
+        <v>563150.2376893417</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>563150.2376893419</v>
+        <v>563150.2376893417</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563150.2376893417</v>
+        <v>563150.2376893418</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>551541.6239090764</v>
+      </c>
+      <c r="C2" t="n">
+        <v>551541.6239090764</v>
+      </c>
+      <c r="D2" t="n">
         <v>551541.6239090763</v>
-      </c>
-      <c r="C2" t="n">
-        <v>551541.6239090763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>551541.6239090762</v>
       </c>
       <c r="E2" t="n">
         <v>312861.2431607452</v>
       </c>
       <c r="F2" t="n">
-        <v>312861.2431607452</v>
+        <v>312861.2431607451</v>
       </c>
       <c r="G2" t="n">
-        <v>312861.2431607454</v>
+        <v>312861.2431607453</v>
       </c>
       <c r="H2" t="n">
         <v>312861.2431607452</v>
       </c>
       <c r="I2" t="n">
-        <v>312861.2431607451</v>
+        <v>312861.2431607452</v>
       </c>
       <c r="J2" t="n">
         <v>312861.2431607451</v>
@@ -26343,19 +26343,19 @@
         <v>312861.2431607451</v>
       </c>
       <c r="L2" t="n">
+        <v>312861.2431607452</v>
+      </c>
+      <c r="M2" t="n">
         <v>312861.2431607451</v>
       </c>
-      <c r="M2" t="n">
-        <v>312861.2431607452</v>
-      </c>
       <c r="N2" t="n">
-        <v>312861.2431607454</v>
+        <v>312861.2431607451</v>
       </c>
       <c r="O2" t="n">
         <v>312861.2431607452</v>
       </c>
       <c r="P2" t="n">
-        <v>312861.2431607451</v>
+        <v>312861.2431607452</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1178.583834366815</v>
+        <v>1178.583834366837</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495393.5289189679</v>
+        <v>495393.5289189677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>920.1677854372477</v>
+        <v>920.1677854372181</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>105862.0278985367</v>
+        <v>105862.0278985366</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>382300.9666476649</v>
       </c>
       <c r="E4" t="n">
+        <v>321.2615347099249</v>
+      </c>
+      <c r="F4" t="n">
+        <v>321.2615347099249</v>
+      </c>
+      <c r="G4" t="n">
         <v>321.261534709925</v>
       </c>
-      <c r="F4" t="n">
-        <v>321.2615347099251</v>
-      </c>
-      <c r="G4" t="n">
-        <v>321.2615347099251</v>
-      </c>
       <c r="H4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.261534709925</v>
       </c>
       <c r="I4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="J4" t="n">
         <v>321.261534709925</v>
       </c>
       <c r="K4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="L4" t="n">
         <v>321.261534709925</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.261534709925</v>
       </c>
       <c r="N4" t="n">
         <v>321.261534709925</v>
       </c>
       <c r="O4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.261534709925</v>
       </c>
       <c r="P4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.2615347099249</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>36042.35550341868</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="F5" t="n">
-        <v>36042.35550341868</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="G5" t="n">
-        <v>36042.35550341868</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="H5" t="n">
-        <v>36042.35550341868</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="I5" t="n">
         <v>36042.35550341867</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134220.6477656323</v>
+        <v>134189.3490005319</v>
       </c>
       <c r="C6" t="n">
-        <v>135399.231599999</v>
+        <v>135367.9328348988</v>
       </c>
       <c r="D6" t="n">
-        <v>135399.2315999989</v>
+        <v>135367.9328348987</v>
       </c>
       <c r="E6" t="n">
-        <v>-218895.9027963513</v>
+        <v>-228474.4167913847</v>
       </c>
       <c r="F6" t="n">
-        <v>276497.6261226166</v>
+        <v>266919.112127583</v>
       </c>
       <c r="G6" t="n">
-        <v>276497.6261226168</v>
+        <v>266919.1121275831</v>
       </c>
       <c r="H6" t="n">
-        <v>276497.6261226166</v>
+        <v>266919.112127583</v>
       </c>
       <c r="I6" t="n">
-        <v>276497.6261226165</v>
+        <v>266919.112127583</v>
       </c>
       <c r="J6" t="n">
-        <v>275577.4583371792</v>
+        <v>265998.9443421457</v>
       </c>
       <c r="K6" t="n">
-        <v>276497.6261226165</v>
+        <v>266919.112127583</v>
       </c>
       <c r="L6" t="n">
-        <v>276497.6261226165</v>
+        <v>266919.112127583</v>
       </c>
       <c r="M6" t="n">
-        <v>170635.5982240799</v>
+        <v>161057.0842290463</v>
       </c>
       <c r="N6" t="n">
-        <v>276497.6261226168</v>
+        <v>266919.112127583</v>
       </c>
       <c r="O6" t="n">
-        <v>276497.6261226166</v>
+        <v>266919.112127583</v>
       </c>
       <c r="P6" t="n">
-        <v>276497.6261226165</v>
+        <v>266919.1121275831</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>458.7453524529083</v>
+        <v>458.7453524529082</v>
       </c>
       <c r="F3" t="n">
-        <v>458.7453524529083</v>
+        <v>458.7453524529082</v>
       </c>
       <c r="G3" t="n">
-        <v>458.7453524529083</v>
+        <v>458.7453524529082</v>
       </c>
       <c r="H3" t="n">
-        <v>458.7453524529083</v>
+        <v>458.7453524529082</v>
       </c>
       <c r="I3" t="n">
         <v>458.7453524529082</v>
@@ -26798,13 +26798,13 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="F4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="G4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="H4" t="n">
         <v>428.3175463806789</v>
@@ -26813,25 +26813,25 @@
         <v>428.3175463806788</v>
       </c>
       <c r="J4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.3175463806788</v>
+      </c>
+      <c r="L4" t="n">
         <v>428.3175463806789</v>
       </c>
-      <c r="K4" t="n">
-        <v>428.3175463806789</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>428.3175463806788</v>
       </c>
-      <c r="M4" t="n">
-        <v>428.3175463806789</v>
-      </c>
       <c r="N4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="O4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="P4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>458.7453524529083</v>
+        <v>458.7453524529082</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.8006769495541</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.516869431124917</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.8006769495541</v>
+        <v>424.8006769495538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.8006769495541</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F2" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27408,7 +27408,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>16.99055923469257</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173.2336249665409</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C3" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0746564816438</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E3" t="n">
-        <v>168.3107024086749</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F3" t="n">
-        <v>155.3065696888035</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9622183950918</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H3" t="n">
         <v>127.8372169228968</v>
@@ -27502,16 +27502,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34.64768193211606</v>
+        <v>31.55002333718133</v>
       </c>
       <c r="R3" t="n">
         <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
-        <v>195.63287444794</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T3" t="n">
-        <v>215.8480604164874</v>
+        <v>212.3311909853626</v>
       </c>
       <c r="U3" t="n">
         <v>237.2423862021824</v>
@@ -27627,7 +27627,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F5" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27645,7 +27645,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>16.99055923469257</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27697,10 +27697,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C6" t="n">
-        <v>187.5181515243659</v>
+        <v>184.0012820932411</v>
       </c>
       <c r="D6" t="n">
-        <v>159.1723150765785</v>
+        <v>155.6554456454537</v>
       </c>
       <c r="E6" t="n">
         <v>171.8275718397997</v>
@@ -27742,7 +27742,7 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
-        <v>148.2309527983001</v>
+        <v>145.1332942033654</v>
       </c>
       <c r="S6" t="n">
         <v>195.63287444794</v>
@@ -27751,19 +27751,19 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
-        <v>234.1447276072476</v>
+        <v>233.7255167710576</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W6" t="n">
-        <v>263.1877141458868</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X6" t="n">
-        <v>213.7960450083458</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y6" t="n">
-        <v>219.8674167029008</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="7">
@@ -27861,10 +27861,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.3012636738836</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27934,16 +27934,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.4204929294312</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>155.6554456454537</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>155.7257805249936</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27955,7 +27955,7 @@
         <v>111.3389500165922</v>
       </c>
       <c r="J9" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>18.88693805350088</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0986138711186</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J11" t="n">
         <v>156.5243753075378</v>
       </c>
       <c r="K11" t="n">
-        <v>234.5894638274639</v>
+        <v>234.5894638274638</v>
       </c>
       <c r="L11" t="n">
         <v>291.028973697336</v>
       </c>
       <c r="M11" t="n">
-        <v>323.8258085181778</v>
+        <v>323.8258085181777</v>
       </c>
       <c r="N11" t="n">
-        <v>329.0656486494616</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O11" t="n">
         <v>310.7273608164822</v>
       </c>
       <c r="P11" t="n">
-        <v>265.1986135253017</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q11" t="n">
         <v>199.1531142902472</v>
@@ -31788,10 +31788,10 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S11" t="n">
-        <v>42.02476268953026</v>
+        <v>42.02476268953024</v>
       </c>
       <c r="T11" t="n">
-        <v>8.072996101960223</v>
+        <v>8.072996101960221</v>
       </c>
       <c r="U11" t="n">
         <v>0.147536193753699</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9867352864081425</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H12" t="n">
-        <v>9.529785529257587</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I12" t="n">
-        <v>33.97312279957859</v>
+        <v>33.97312279957858</v>
       </c>
       <c r="J12" t="n">
-        <v>93.22484563384999</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K12" t="n">
         <v>159.3361098231955</v>
       </c>
       <c r="L12" t="n">
-        <v>214.2470629545399</v>
+        <v>214.2470629545398</v>
       </c>
       <c r="M12" t="n">
-        <v>250.016217086835</v>
+        <v>250.0162170868349</v>
       </c>
       <c r="N12" t="n">
-        <v>256.633402406651</v>
+        <v>80.46832682898147</v>
       </c>
       <c r="O12" t="n">
-        <v>234.7694257972917</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P12" t="n">
-        <v>188.4231618405163</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q12" t="n">
         <v>125.9558937527306</v>
       </c>
       <c r="R12" t="n">
-        <v>61.26414348418276</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S12" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T12" t="n">
-        <v>3.977235650039836</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06491679515843045</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8272457175380313</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H13" t="n">
-        <v>7.354966470474502</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I13" t="n">
         <v>24.8775348510528</v>
       </c>
       <c r="J13" t="n">
-        <v>58.48627222993881</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K13" t="n">
-        <v>96.11091154669126</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L13" t="n">
         <v>122.9888769510633</v>
@@ -31934,25 +31934,25 @@
         <v>126.5911560301608</v>
       </c>
       <c r="O13" t="n">
-        <v>116.9274219661938</v>
+        <v>116.9274219661937</v>
       </c>
       <c r="P13" t="n">
-        <v>100.0516093284179</v>
+        <v>100.0516093284178</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.27054822038916</v>
+        <v>69.27054822038913</v>
       </c>
       <c r="R13" t="n">
-        <v>37.19597562675547</v>
+        <v>37.19597562675546</v>
       </c>
       <c r="S13" t="n">
-        <v>14.41663673200369</v>
+        <v>14.41663673200368</v>
       </c>
       <c r="T13" t="n">
-        <v>3.534595338571588</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04512249368389267</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>18.88693805350088</v>
       </c>
       <c r="I14" t="n">
-        <v>71.0986138711186</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J14" t="n">
         <v>156.5243753075378</v>
       </c>
       <c r="K14" t="n">
-        <v>234.5894638274639</v>
+        <v>234.5894638274638</v>
       </c>
       <c r="L14" t="n">
         <v>291.028973697336</v>
       </c>
       <c r="M14" t="n">
-        <v>323.8258085181778</v>
+        <v>323.8258085181777</v>
       </c>
       <c r="N14" t="n">
-        <v>329.0656486494616</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O14" t="n">
         <v>310.7273608164822</v>
       </c>
       <c r="P14" t="n">
-        <v>265.1986135253017</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q14" t="n">
         <v>199.1531142902472</v>
@@ -32025,10 +32025,10 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S14" t="n">
-        <v>42.02476268953026</v>
+        <v>42.02476268953024</v>
       </c>
       <c r="T14" t="n">
-        <v>8.072996101960223</v>
+        <v>8.072996101960221</v>
       </c>
       <c r="U14" t="n">
         <v>0.147536193753699</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9867352864081425</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H15" t="n">
-        <v>9.529785529257587</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I15" t="n">
-        <v>33.97312279957859</v>
+        <v>33.97312279957858</v>
       </c>
       <c r="J15" t="n">
-        <v>93.22484563384999</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K15" t="n">
         <v>159.3361098231955</v>
       </c>
       <c r="L15" t="n">
-        <v>214.2470629545399</v>
+        <v>214.2470629545398</v>
       </c>
       <c r="M15" t="n">
-        <v>250.016217086835</v>
+        <v>250.0162170868349</v>
       </c>
       <c r="N15" t="n">
         <v>256.633402406651</v>
       </c>
       <c r="O15" t="n">
-        <v>234.7694257972917</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P15" t="n">
-        <v>188.4231618405163</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q15" t="n">
         <v>125.9558937527306</v>
       </c>
       <c r="R15" t="n">
-        <v>61.26414348418276</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S15" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T15" t="n">
-        <v>3.977235650039836</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06491679515843045</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8272457175380313</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H16" t="n">
-        <v>7.354966470474502</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I16" t="n">
         <v>24.8775348510528</v>
       </c>
       <c r="J16" t="n">
-        <v>58.48627222993881</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K16" t="n">
-        <v>96.11091154669126</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L16" t="n">
         <v>122.9888769510633</v>
@@ -32171,25 +32171,25 @@
         <v>126.5911560301608</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9274219661938</v>
+        <v>116.9274219661937</v>
       </c>
       <c r="P16" t="n">
-        <v>100.0516093284179</v>
+        <v>100.0516093284178</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.27054822038916</v>
+        <v>69.27054822038913</v>
       </c>
       <c r="R16" t="n">
-        <v>37.19597562675547</v>
+        <v>37.19597562675546</v>
       </c>
       <c r="S16" t="n">
-        <v>14.41663673200369</v>
+        <v>14.41663673200368</v>
       </c>
       <c r="T16" t="n">
-        <v>3.534595338571588</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04512249368389267</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>18.88693805350088</v>
       </c>
       <c r="I17" t="n">
-        <v>71.0986138711186</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J17" t="n">
         <v>156.5243753075378</v>
       </c>
       <c r="K17" t="n">
-        <v>234.5894638274639</v>
+        <v>234.5894638274638</v>
       </c>
       <c r="L17" t="n">
         <v>291.028973697336</v>
       </c>
       <c r="M17" t="n">
-        <v>323.8258085181778</v>
+        <v>323.8258085181777</v>
       </c>
       <c r="N17" t="n">
-        <v>329.0656486494616</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O17" t="n">
         <v>310.7273608164822</v>
       </c>
       <c r="P17" t="n">
-        <v>265.1986135253017</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q17" t="n">
         <v>199.1531142902472</v>
@@ -32262,10 +32262,10 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S17" t="n">
-        <v>42.02476268953026</v>
+        <v>42.02476268953024</v>
       </c>
       <c r="T17" t="n">
-        <v>8.072996101960223</v>
+        <v>8.072996101960221</v>
       </c>
       <c r="U17" t="n">
         <v>0.147536193753699</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9867352864081425</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H18" t="n">
-        <v>9.529785529257587</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I18" t="n">
-        <v>33.97312279957859</v>
+        <v>33.97312279957858</v>
       </c>
       <c r="J18" t="n">
         <v>73.03491363274843</v>
@@ -32320,34 +32320,34 @@
         <v>159.3361098231955</v>
       </c>
       <c r="L18" t="n">
-        <v>214.2470629545399</v>
+        <v>214.2470629545398</v>
       </c>
       <c r="M18" t="n">
-        <v>250.016217086835</v>
+        <v>250.0162170868349</v>
       </c>
       <c r="N18" t="n">
         <v>256.633402406651</v>
       </c>
       <c r="O18" t="n">
-        <v>234.7694257972917</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P18" t="n">
-        <v>188.4231618405163</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q18" t="n">
         <v>125.9558937527306</v>
       </c>
       <c r="R18" t="n">
-        <v>61.26414348418276</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S18" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T18" t="n">
-        <v>3.977235650039836</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06491679515843045</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8272457175380313</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H19" t="n">
-        <v>7.354966470474502</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I19" t="n">
         <v>24.8775348510528</v>
       </c>
       <c r="J19" t="n">
-        <v>58.48627222993881</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K19" t="n">
-        <v>96.11091154669126</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L19" t="n">
         <v>122.9888769510633</v>
@@ -32408,25 +32408,25 @@
         <v>126.5911560301608</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9274219661938</v>
+        <v>116.9274219661937</v>
       </c>
       <c r="P19" t="n">
-        <v>100.0516093284179</v>
+        <v>100.0516093284178</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.27054822038916</v>
+        <v>69.27054822038913</v>
       </c>
       <c r="R19" t="n">
-        <v>37.19597562675547</v>
+        <v>37.19597562675546</v>
       </c>
       <c r="S19" t="n">
-        <v>14.41663673200369</v>
+        <v>14.41663673200368</v>
       </c>
       <c r="T19" t="n">
-        <v>3.534595338571588</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04512249368389267</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>18.88693805350088</v>
       </c>
       <c r="I20" t="n">
-        <v>71.0986138711186</v>
+        <v>71.09861387111859</v>
       </c>
       <c r="J20" t="n">
         <v>156.5243753075378</v>
       </c>
       <c r="K20" t="n">
-        <v>234.5894638274639</v>
+        <v>234.5894638274638</v>
       </c>
       <c r="L20" t="n">
         <v>291.028973697336</v>
       </c>
       <c r="M20" t="n">
-        <v>323.8258085181778</v>
+        <v>323.8258085181777</v>
       </c>
       <c r="N20" t="n">
-        <v>329.0656486494616</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O20" t="n">
         <v>310.7273608164822</v>
       </c>
       <c r="P20" t="n">
-        <v>265.1986135253017</v>
+        <v>265.1986135253016</v>
       </c>
       <c r="Q20" t="n">
         <v>199.1531142902472</v>
@@ -32499,10 +32499,10 @@
         <v>115.8458803860101</v>
       </c>
       <c r="S20" t="n">
-        <v>42.02476268953026</v>
+        <v>42.02476268953024</v>
       </c>
       <c r="T20" t="n">
-        <v>8.072996101960223</v>
+        <v>8.072996101960221</v>
       </c>
       <c r="U20" t="n">
         <v>0.147536193753699</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9867352864081425</v>
+        <v>0.9867352864081422</v>
       </c>
       <c r="H21" t="n">
-        <v>9.529785529257587</v>
+        <v>9.529785529257586</v>
       </c>
       <c r="I21" t="n">
-        <v>33.97312279957859</v>
+        <v>33.97312279957858</v>
       </c>
       <c r="J21" t="n">
-        <v>73.03491363274843</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3361098231955</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>214.2470629545399</v>
+        <v>214.2470629545398</v>
       </c>
       <c r="M21" t="n">
-        <v>250.016217086835</v>
+        <v>212.9973193312597</v>
       </c>
       <c r="N21" t="n">
         <v>256.633402406651</v>
       </c>
       <c r="O21" t="n">
-        <v>234.7694257972917</v>
+        <v>234.7694257972916</v>
       </c>
       <c r="P21" t="n">
-        <v>188.4231618405163</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q21" t="n">
         <v>125.9558937527306</v>
       </c>
       <c r="R21" t="n">
-        <v>61.26414348418276</v>
+        <v>61.26414348418275</v>
       </c>
       <c r="S21" t="n">
         <v>18.32817516639684</v>
       </c>
       <c r="T21" t="n">
-        <v>3.977235650039836</v>
+        <v>3.977235650039835</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06491679515843045</v>
+        <v>0.06491679515843043</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8272457175380313</v>
+        <v>0.8272457175380311</v>
       </c>
       <c r="H22" t="n">
-        <v>7.354966470474502</v>
+        <v>7.3549664704745</v>
       </c>
       <c r="I22" t="n">
         <v>24.8775348510528</v>
       </c>
       <c r="J22" t="n">
-        <v>58.48627222993881</v>
+        <v>58.4862722299388</v>
       </c>
       <c r="K22" t="n">
-        <v>96.11091154669126</v>
+        <v>96.11091154669123</v>
       </c>
       <c r="L22" t="n">
         <v>122.9888769510633</v>
@@ -32645,25 +32645,25 @@
         <v>126.5911560301608</v>
       </c>
       <c r="O22" t="n">
-        <v>116.9274219661938</v>
+        <v>116.9274219661937</v>
       </c>
       <c r="P22" t="n">
-        <v>100.0516093284179</v>
+        <v>100.0516093284178</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.27054822038916</v>
+        <v>69.27054822038913</v>
       </c>
       <c r="R22" t="n">
-        <v>37.19597562675547</v>
+        <v>37.19597562675546</v>
       </c>
       <c r="S22" t="n">
-        <v>14.41663673200369</v>
+        <v>14.41663673200368</v>
       </c>
       <c r="T22" t="n">
-        <v>3.534595338571588</v>
+        <v>3.534595338571587</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04512249368389267</v>
+        <v>0.04512249368389266</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J24" t="n">
-        <v>73.03491363274843</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K24" t="n">
-        <v>159.3361098231955</v>
+        <v>151.4042640849406</v>
       </c>
       <c r="L24" t="n">
         <v>214.2470629545398</v>
@@ -32806,7 +32806,7 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P24" t="n">
-        <v>188.4231618405162</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>125.9558937527306</v>
@@ -33028,7 +33028,7 @@
         <v>93.22484563384998</v>
       </c>
       <c r="K27" t="n">
-        <v>74.47924606614096</v>
+        <v>74.4792460661405</v>
       </c>
       <c r="L27" t="n">
         <v>214.2470629545398</v>
@@ -33046,7 +33046,7 @@
         <v>188.4231618405162</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.64768193211606</v>
+        <v>125.9558937527306</v>
       </c>
       <c r="R27" t="n">
         <v>61.26414348418275</v>
@@ -33262,13 +33262,13 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J30" t="n">
-        <v>73.03491363274843</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K30" t="n">
         <v>159.3361098231955</v>
       </c>
       <c r="L30" t="n">
-        <v>214.2470629545398</v>
+        <v>38.08198737687026</v>
       </c>
       <c r="M30" t="n">
         <v>250.0162170868349</v>
@@ -33280,7 +33280,7 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P30" t="n">
-        <v>12.25808626284735</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q30" t="n">
         <v>125.9558937527306</v>
@@ -33505,7 +33505,7 @@
         <v>159.3361098231955</v>
       </c>
       <c r="L33" t="n">
-        <v>180.4350832343972</v>
+        <v>214.2470629545398</v>
       </c>
       <c r="M33" t="n">
         <v>250.0162170868349</v>
@@ -33517,7 +33517,7 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P33" t="n">
-        <v>188.4231618405162</v>
+        <v>103.5662980834619</v>
       </c>
       <c r="Q33" t="n">
         <v>125.9558937527306</v>
@@ -33739,13 +33739,13 @@
         <v>93.22484563384998</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3361098231955</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>214.2470629545398</v>
+        <v>177.2281651989642</v>
       </c>
       <c r="M36" t="n">
-        <v>53.66120950806422</v>
+        <v>250.0162170868349</v>
       </c>
       <c r="N36" t="n">
         <v>256.633402406651</v>
@@ -33994,7 +33994,7 @@
         <v>188.4231618405162</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.93699599715544</v>
+        <v>109.1269279982565</v>
       </c>
       <c r="R39" t="n">
         <v>61.26414348418275</v>
@@ -34213,7 +34213,7 @@
         <v>93.22484563384998</v>
       </c>
       <c r="K42" t="n">
-        <v>159.3361098231955</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>214.2470629545398</v>
@@ -34231,7 +34231,7 @@
         <v>188.4231618405162</v>
       </c>
       <c r="Q42" t="n">
-        <v>125.9558937527306</v>
+        <v>109.1269279982565</v>
       </c>
       <c r="R42" t="n">
         <v>61.26414348418275</v>
@@ -34789,13 +34789,13 @@
         <v>3.516869431124803</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O3" t="n">
         <v>0.1678556611008989</v>
       </c>
       <c r="P3" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0.1678556611008975</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.167855661100898</v>
       </c>
       <c r="O6" t="n">
         <v>3.516869431124803</v>
@@ -35257,19 +35257,19 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008975</v>
       </c>
       <c r="M9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1678556611008989</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.22297841648437</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K11" t="n">
         <v>176.1260728987023</v>
       </c>
       <c r="L11" t="n">
-        <v>274.0384144626435</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M11" t="n">
-        <v>334.0881736842606</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N11" t="n">
-        <v>332.5825180805864</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O11" t="n">
         <v>276.7660603402834</v>
       </c>
       <c r="P11" t="n">
-        <v>191.6199215989936</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52028659103709</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.18993200110157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L12" t="n">
-        <v>285.515263379735</v>
+        <v>285.5152633797348</v>
       </c>
       <c r="M12" t="n">
-        <v>378.3895770119726</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N12" t="n">
-        <v>407.010372239607</v>
+        <v>230.8452966619375</v>
       </c>
       <c r="O12" t="n">
         <v>316.0247904663902</v>
@@ -35509,7 +35509,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.49623210047208</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.884697169972952</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L13" t="n">
-        <v>63.71317848687988</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M13" t="n">
-        <v>75.85933028513601</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N13" t="n">
-        <v>82.15267229778756</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O13" t="n">
-        <v>53.66144486003743</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P13" t="n">
-        <v>19.5076974159564</v>
+        <v>19.50769741595637</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.22297841648437</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K14" t="n">
         <v>176.1260728987023</v>
       </c>
       <c r="L14" t="n">
-        <v>274.0384144626435</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M14" t="n">
-        <v>334.0881736842606</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N14" t="n">
-        <v>332.5825180805864</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O14" t="n">
         <v>276.7660603402834</v>
       </c>
       <c r="P14" t="n">
-        <v>191.6199215989936</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52028659103709</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.18993200110157</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K15" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L15" t="n">
-        <v>285.515263379735</v>
+        <v>285.5152633797348</v>
       </c>
       <c r="M15" t="n">
-        <v>378.3895770119726</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N15" t="n">
-        <v>301.9635764814504</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0247904663902</v>
+        <v>210.9779947082335</v>
       </c>
       <c r="P15" t="n">
         <v>231.3382588737126</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.884697169972952</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L16" t="n">
-        <v>63.71317848687988</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M16" t="n">
-        <v>75.85933028513601</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N16" t="n">
-        <v>82.15267229778756</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O16" t="n">
-        <v>53.66144486003743</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P16" t="n">
-        <v>19.5076974159564</v>
+        <v>19.50769741595637</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.22297841648437</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K17" t="n">
         <v>176.1260728987023</v>
       </c>
       <c r="L17" t="n">
-        <v>274.0384144626435</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M17" t="n">
-        <v>334.0881736842606</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N17" t="n">
-        <v>332.5825180805864</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O17" t="n">
         <v>276.7660603402834</v>
       </c>
       <c r="P17" t="n">
-        <v>191.6199215989936</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52028659103709</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>285.515263379735</v>
+        <v>285.5152633797348</v>
       </c>
       <c r="M18" t="n">
-        <v>378.3895770119726</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N18" t="n">
         <v>407.010372239607</v>
@@ -35980,10 +35980,10 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P18" t="n">
-        <v>217.7162111546715</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.30821182061456</v>
+        <v>77.68616410157365</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.884697169972952</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L19" t="n">
-        <v>63.71317848687988</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M19" t="n">
-        <v>75.85933028513601</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N19" t="n">
-        <v>82.15267229778756</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O19" t="n">
-        <v>53.66144486003743</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P19" t="n">
-        <v>19.5076974159564</v>
+        <v>19.50769741595637</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.22297841648437</v>
+        <v>45.22297841648431</v>
       </c>
       <c r="K20" t="n">
         <v>176.1260728987023</v>
       </c>
       <c r="L20" t="n">
-        <v>274.0384144626435</v>
+        <v>274.0384144626434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.0881736842606</v>
+        <v>334.0881736842605</v>
       </c>
       <c r="N20" t="n">
-        <v>332.5825180805864</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O20" t="n">
         <v>276.7660603402834</v>
       </c>
       <c r="P20" t="n">
-        <v>191.6199215989936</v>
+        <v>191.6199215989935</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52028659103709</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K21" t="n">
-        <v>77.68616410157351</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L21" t="n">
-        <v>285.515263379735</v>
+        <v>285.5152633797348</v>
       </c>
       <c r="M21" t="n">
-        <v>378.3895770119726</v>
+        <v>341.3706792563973</v>
       </c>
       <c r="N21" t="n">
         <v>407.010372239607</v>
@@ -36220,7 +36220,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.884697169972952</v>
+        <v>7.884697169972924</v>
       </c>
       <c r="L22" t="n">
-        <v>63.71317848687988</v>
+        <v>63.71317848687985</v>
       </c>
       <c r="M22" t="n">
-        <v>75.85933028513601</v>
+        <v>75.85933028513598</v>
       </c>
       <c r="N22" t="n">
-        <v>82.15267229778756</v>
+        <v>82.15267229778753</v>
       </c>
       <c r="O22" t="n">
-        <v>53.66144486003743</v>
+        <v>53.66144486003741</v>
       </c>
       <c r="P22" t="n">
-        <v>19.5076974159564</v>
+        <v>19.50769741595637</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K24" t="n">
-        <v>162.5430278586285</v>
+        <v>154.6111821203736</v>
       </c>
       <c r="L24" t="n">
         <v>285.5152633797348</v>
       </c>
       <c r="M24" t="n">
-        <v>202.2245014343029</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N24" t="n">
         <v>407.010372239607</v>
@@ -36454,7 +36454,7 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P24" t="n">
-        <v>231.3382588737126</v>
+        <v>42.91509703319639</v>
       </c>
       <c r="Q24" t="n">
         <v>91.30821182061453</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>77.68616410157397</v>
+        <v>77.68616410157351</v>
       </c>
       <c r="L27" t="n">
         <v>285.5152633797348</v>
@@ -36916,7 +36916,7 @@
         <v>162.5430278586285</v>
       </c>
       <c r="L30" t="n">
-        <v>285.5152633797348</v>
+        <v>109.3501878020653</v>
       </c>
       <c r="M30" t="n">
         <v>378.3895770119725</v>
@@ -36928,7 +36928,7 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P30" t="n">
-        <v>55.17318329604374</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q30" t="n">
         <v>91.30821182061453</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L33" t="n">
-        <v>251.7032836595922</v>
+        <v>285.5152633797348</v>
       </c>
       <c r="M33" t="n">
         <v>378.3895770119725</v>
@@ -37165,10 +37165,10 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P33" t="n">
-        <v>231.3382588737126</v>
+        <v>146.4813951166583</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.30821182061453</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>20.18993200110155</v>
       </c>
       <c r="K36" t="n">
-        <v>162.5430278586285</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L36" t="n">
-        <v>285.5152633797348</v>
+        <v>248.4963656241592</v>
       </c>
       <c r="M36" t="n">
-        <v>182.0345694332018</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N36" t="n">
         <v>407.010372239607</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>3.206918035433006</v>
@@ -37642,7 +37642,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.28931406503938</v>
+        <v>74.47924606614048</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.5430278586285</v>
+        <v>3.206918035433006</v>
       </c>
       <c r="L42" t="n">
         <v>285.5152633797348</v>
@@ -37873,13 +37873,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O42" t="n">
-        <v>210.977994708234</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P42" t="n">
         <v>231.3382588737126</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>74.47924606614048</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>191.6199215989935</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52028659103745</v>
+        <v>65.52028659103703</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N45" t="n">
-        <v>407.010372239607</v>
+        <v>210.6553646608359</v>
       </c>
       <c r="O45" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P45" t="n">
-        <v>34.98325129494195</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q45" t="n">
         <v>91.30821182061453</v>
